--- a/数据整理/stocks/A股/科创板/688279-峰岹科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688279-峰岹科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -498,6 +515,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
